--- a/data/isotopes/plate_maps_isotopes.xlsx
+++ b/data/isotopes/plate_maps_isotopes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7CDDE-89C6-E441-9BF2-38302A2532E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA40628-B65D-A24E-87F6-D9AFAEF20D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="760" windowWidth="21660" windowHeight="17440" activeTab="2" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="14620" yWindow="760" windowWidth="15100" windowHeight="17440" activeTab="1" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Visual Map" sheetId="1" r:id="rId1"/>
@@ -1358,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D3A803-1F29-234F-8EF2-C5D123702EED}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -2096,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C934D038-50DF-1C47-83EA-926DB6C1CCDD}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/data/isotopes/plate_maps_isotopes.xlsx
+++ b/data/isotopes/plate_maps_isotopes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA40628-B65D-A24E-87F6-D9AFAEF20D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73C286-3112-C144-8EBC-D03EEC1199C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="760" windowWidth="15100" windowHeight="17440" activeTab="1" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="14620" yWindow="760" windowWidth="15100" windowHeight="17440" activeTab="2" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Visual Map" sheetId="1" r:id="rId1"/>
@@ -70,24 +70,6 @@
     <t xml:space="preserve">LIGHTS = </t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Run1</t>
   </si>
   <si>
@@ -223,7 +205,25 @@
     <t>C12 - POC RECRUIT</t>
   </si>
   <si>
-    <t>Logger SSN</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>logger_ssn</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -410,9 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -424,22 +421,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -448,6 +432,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +778,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -807,32 +803,32 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
-        <v>19</v>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>7</v>
@@ -840,31 +836,31 @@
     </row>
     <row r="5" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>8</v>
@@ -872,60 +868,60 @@
     </row>
     <row r="6" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>9</v>
@@ -933,44 +929,44 @@
     </row>
     <row r="8" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="12" spans="2:14" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="B10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="12" spans="2:14" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -995,32 +991,32 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>19</v>
+      <c r="B15" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>7</v>
@@ -1028,31 +1024,31 @@
     </row>
     <row r="16" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>8</v>
@@ -1060,60 +1056,60 @@
     </row>
     <row r="17" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>9</v>
@@ -1121,44 +1117,44 @@
     </row>
     <row r="19" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>56</v>
+      <c r="L19" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="23" spans="2:14" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="B21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="23" spans="2:14" s="5" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1183,32 +1179,32 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23" t="s">
-        <v>19</v>
+      <c r="B26" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>7</v>
@@ -1216,31 +1212,31 @@
     </row>
     <row r="27" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>8</v>
@@ -1248,60 +1244,60 @@
     </row>
     <row r="28" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>9</v>
@@ -1309,40 +1305,40 @@
     </row>
     <row r="30" spans="2:14" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="25" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="32" spans="2:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1356,9 +1352,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D3A803-1F29-234F-8EF2-C5D123702EED}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1372,714 +1368,556 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="16">
-        <v>2</v>
-      </c>
-      <c r="G2" s="16">
-        <v>2</v>
-      </c>
-      <c r="H2" s="16">
-        <v>2</v>
-      </c>
-      <c r="I2" s="16">
-        <v>2</v>
-      </c>
-      <c r="J2" s="16">
-        <v>2</v>
-      </c>
-      <c r="K2" s="16">
-        <v>2</v>
-      </c>
-      <c r="L2" s="11">
-        <f>SUM(C2:K2)</f>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:L13" si="0">SUM(C2:K2)</f>
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="A3" s="20"/>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="20">
+      <c r="I3" s="13"/>
+      <c r="K3" s="13">
         <v>1</v>
       </c>
-      <c r="L3" s="10">
-        <f>SUM(C3:K3)</f>
+      <c r="L3" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19">
+      <c r="A4" s="21"/>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
         <v>1</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="9">
-        <f>SUM(C4:K4)</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="8">
+      <c r="I4" s="14"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
         <f>SUM(L2:L4)</f>
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4</v>
+      </c>
+      <c r="J5" s="11">
+        <v>4</v>
+      </c>
+      <c r="K5" s="11">
+        <v>4</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
-        <v>4</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>4</v>
-      </c>
-      <c r="F5" s="12">
-        <v>4</v>
-      </c>
-      <c r="G5" s="12">
-        <v>4</v>
-      </c>
-      <c r="H5" s="12">
-        <v>4</v>
-      </c>
-      <c r="I5" s="12">
-        <v>4</v>
-      </c>
-      <c r="J5" s="12">
-        <v>4</v>
-      </c>
-      <c r="K5" s="12">
-        <v>4</v>
-      </c>
-      <c r="L5" s="11">
-        <f>SUM(C5:K5)</f>
-        <v>36</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14">
+      <c r="A6" s="20"/>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="20">
+      <c r="I6" s="13">
         <v>1</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="10">
-        <f>SUM(C6:K6)</f>
+      <c r="K6" s="13"/>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
+      <c r="A7" s="21"/>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="21">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14">
         <v>1</v>
       </c>
-      <c r="L7" s="10">
-        <f>SUM(C7:K7)</f>
-        <v>2</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="7">
         <f>SUM(L5:L7)</f>
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2</v>
-      </c>
-      <c r="G8" s="16">
-        <v>2</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2</v>
-      </c>
-      <c r="I8" s="16">
-        <v>2</v>
-      </c>
-      <c r="J8" s="16">
-        <v>2</v>
-      </c>
-      <c r="K8" s="16">
-        <v>2</v>
-      </c>
-      <c r="L8" s="11">
-        <f>SUM(C8:K8)</f>
+      <c r="A8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14">
+      <c r="A9" s="20"/>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="10">
-        <f>SUM(C9:K9)</f>
+      <c r="I9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
+      <c r="A10" s="21"/>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14">
         <v>1</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="10">
-        <f>SUM(C10:K10)</f>
+      <c r="K10" s="14"/>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f>SUM(L8:L10)</f>
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="A11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>4</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>4</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>4</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>4</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>4</v>
       </c>
-      <c r="L11" s="11">
-        <f>SUM(C11:K11)</f>
+      <c r="L11" s="10">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="A12" s="20"/>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="14">
+      <c r="I12" s="13"/>
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="10">
-        <f>SUM(C12:K12)</f>
+      <c r="K12" s="13"/>
+      <c r="L12" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="19">
+      <c r="A13" s="21"/>
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="9">
-        <f>SUM(C13:K13)</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="8">
+      <c r="H13" s="12"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="7">
         <f>SUM(L11:L13)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:L15" si="1">SUM(C2:C13)</f>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13">
-        <f>SUM(C2:C13)</f>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="13">
-        <f>SUM(D2:D13)</f>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="13">
-        <f>SUM(E2:E13)</f>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="13">
-        <f>SUM(F2:F13)</f>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="13">
-        <f>SUM(G2:G13)</f>
-        <v>14</v>
-      </c>
-      <c r="H15" s="13">
-        <f>SUM(H2:H13)</f>
-        <v>14</v>
-      </c>
-      <c r="I15" s="13">
-        <f>SUM(I2:I13)</f>
-        <v>14</v>
-      </c>
-      <c r="J15" s="13">
-        <f>SUM(J2:J13)</f>
-        <v>14</v>
-      </c>
-      <c r="K15" s="13">
-        <f>SUM(K2:K13)</f>
-        <v>14</v>
-      </c>
-      <c r="L15" s="22">
-        <f>SUM(L2:L13)</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="13">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="14">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="14">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="14">
-        <v>2</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2096,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C934D038-50DF-1C47-83EA-926DB6C1CCDD}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2106,31 +1944,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>27</v>
@@ -2138,7 +1976,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -2146,7 +1984,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -2154,7 +1992,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>27</v>
@@ -2162,7 +2000,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -2170,7 +2008,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>33</v>
@@ -2178,7 +2016,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -2186,7 +2024,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -2194,7 +2032,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>33</v>
